--- a/GMLA loading analysis/GMLA_Loading_2023-07-25_manual.xlsx
+++ b/GMLA loading analysis/GMLA_Loading_2023-07-25_manual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\GMLA loading analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28540A25-2694-4941-8596-DC70194E6CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C2C3F8-C5CF-4147-996D-A0070D9821B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-15915" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -939,7 +939,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,12 +974,6 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="31">
@@ -3072,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -9491,7 +9485,8 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/GMLA loading analysis/GMLA_Loading_2023-07-25_manual.xlsx
+++ b/GMLA loading analysis/GMLA_Loading_2023-07-25_manual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\GMLA loading analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C2C3F8-C5CF-4147-996D-A0070D9821B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5429F79E-D444-4086-9141-E76BE6A0CCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-15930" windowWidth="29070" windowHeight="16020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,8 @@
   <authors>
     <author>tc={DDD10316-C7FD-4D6E-AC04-A9373709CB81}</author>
     <author>tc={5E0BE0E1-3777-478A-86D3-03013E7BB4D6}</author>
+    <author>tc={B620424A-CDA9-4D7E-A41A-D5330D611B8D}</author>
+    <author>tc={CC7BA771-E436-456D-90CA-9E7461186280}</author>
     <author>tc={03C0055A-6BB2-413C-A34D-D82D4E42917C}</author>
   </authors>
   <commentList>
@@ -69,7 +71,23 @@
     Have MP date</t>
       </text>
     </comment>
-    <comment ref="B95" authorId="2" shapeId="0" xr:uid="{03C0055A-6BB2-413C-A34D-D82D4E42917C}">
+    <comment ref="B78" authorId="2" shapeId="0" xr:uid="{B620424A-CDA9-4D7E-A41A-D5330D611B8D}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    未被指派給我</t>
+      </text>
+    </comment>
+    <comment ref="B80" authorId="3" shapeId="0" xr:uid="{CC7BA771-E436-456D-90CA-9E7461186280}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    未被指派給我</t>
+      </text>
+    </comment>
+    <comment ref="B95" authorId="4" shapeId="0" xr:uid="{03C0055A-6BB2-413C-A34D-D82D4E42917C}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -856,9 +874,6 @@
     <t>2024-01-03</t>
   </si>
   <si>
-    <t>Large Format TXi = GDU1210</t>
-  </si>
-  <si>
     <t>TBD</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -928,6 +943,10 @@
   </si>
   <si>
     <t>8674 - Instinct Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large Format TXi = GDU1210</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1598,6 +1617,12 @@
   <threadedComment ref="B41" dT="2023-07-27T01:06:55.84" personId="{203B29DE-BA43-41A4-BCF3-7FB6F256F14F}" id="{5E0BE0E1-3777-478A-86D3-03013E7BB4D6}">
     <text>Have MP date</text>
   </threadedComment>
+  <threadedComment ref="B78" dT="2023-08-06T13:36:28.36" personId="{203B29DE-BA43-41A4-BCF3-7FB6F256F14F}" id="{B620424A-CDA9-4D7E-A41A-D5330D611B8D}">
+    <text>未被指派給我</text>
+  </threadedComment>
+  <threadedComment ref="B80" dT="2023-08-06T13:36:40.10" personId="{203B29DE-BA43-41A4-BCF3-7FB6F256F14F}" id="{CC7BA771-E436-456D-90CA-9E7461186280}">
+    <text>未被指派給我</text>
+  </threadedComment>
   <threadedComment ref="B95" dT="2023-07-27T01:30:31.01" personId="{203B29DE-BA43-41A4-BCF3-7FB6F256F14F}" id="{03C0055A-6BB2-413C-A34D-D82D4E42917C}">
     <text>No project</text>
   </threadedComment>
@@ -3066,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3609,7 +3634,7 @@
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" s="30">
         <v>45355</v>
@@ -3640,7 +3665,7 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="30">
         <v>45628</v>
@@ -4123,7 +4148,7 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" s="30">
         <v>45369</v>
@@ -4154,7 +4179,7 @@
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="30">
         <v>45677</v>
@@ -4185,10 +4210,10 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -5868,7 +5893,7 @@
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
       <c r="B41" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C41" s="30">
         <v>45512</v>
@@ -5899,7 +5924,7 @@
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="36"/>
       <c r="B42" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C42" s="30">
         <v>45955</v>
@@ -6532,7 +6557,7 @@
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="36"/>
       <c r="B51" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C51" s="30">
         <v>45600</v>
@@ -7690,7 +7715,7 @@
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C67" s="30">
         <v>45523</v>
@@ -7721,7 +7746,7 @@
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="36"/>
       <c r="B68" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C68" s="30">
         <v>45614</v>
@@ -7979,7 +8004,7 @@
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="35"/>
       <c r="B72" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C72" s="30">
         <v>45656</v>
@@ -8010,10 +8035,10 @@
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="36"/>
       <c r="B73" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="30" t="s">
         <v>260</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>261</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -8343,7 +8368,7 @@
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="35"/>
       <c r="B78" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C78" s="30">
         <v>45518</v>
@@ -8374,7 +8399,7 @@
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="35"/>
       <c r="B79" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C79" s="30">
         <v>45658</v>
@@ -8405,7 +8430,7 @@
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="35"/>
       <c r="B80" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C80" s="30">
         <v>45670</v>
@@ -8436,7 +8461,7 @@
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="36"/>
       <c r="B81" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C81" s="30">
         <v>45706</v>
@@ -9444,10 +9469,10 @@
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="39"/>
       <c r="B95" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" s="30" t="s">
         <v>257</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>258</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
